--- a/data/trans_dic/P6902-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P6902-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,97%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,44%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 27,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>17,91; 58,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>24,78; 88,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>7,03; 62,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 71,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>16,29; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>28,19; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>20,54; 73,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>4,0; 33,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>22,3; 60,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>40,96; 87,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>19,57; 56,87</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,75%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>12,54; 36,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>24,19; 49,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>25,11; 54,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>36,56; 64,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>25,4; 65,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>32,98; 71,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>20,53; 62,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>51,55; 74,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>20,08; 39,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>31,17; 52,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>26,35; 51,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>45,35; 64,66</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,31%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>35,3; 51,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>40,68; 61,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>33,17; 54,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>45,0; 64,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>31,8; 58,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>42,68; 68,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>38,96; 65,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>55,88; 71,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>37,12; 51,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>45,11; 61,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>38,8; 55,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>52,7; 65,73</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,05%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,52%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>32,93; 52,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>41,11; 64,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>24,49; 43,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>51,83; 80,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>49,41; 78,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>40,21; 68,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>53,05; 76,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>39,16; 76,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>41,65; 58,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>44,44; 62,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>36,55; 52,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>47,93; 74,3</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,91%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>49,4; 65,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>37,89; 59,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>47,89; 69,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>72,75; 87,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>40,35; 61,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>48,68; 73,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>54,26; 78,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>54,58; 77,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>47,92; 61,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>46,23; 62,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>54,71; 69,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>65,64; 80,39</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,7%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>38,46; 48,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>41,03; 52,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>38,13; 49,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>56,43; 67,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>44,12; 57,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>49,47; 63,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>53,42; 66,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>57,3; 70,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>41,73; 49,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>47,09; 55,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>45,54; 54,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>58,81; 67,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6902-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,87%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>59,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>66,97%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>50,93%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,29</t>
+          <t>11,4; 29,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,91; 58,62</t>
+          <t>26,25; 47,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,78; 88,21</t>
+          <t>25,39; 54,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 62,69</t>
+          <t>31,52; 58,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,56</t>
+          <t>27,03; 58,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 100,0</t>
+          <t>36,16; 72,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,19; 100,0</t>
+          <t>27,28; 63,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,54; 73,05</t>
+          <t>48,96; 69,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 33,23</t>
+          <t>18,13; 35,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,3; 60,14</t>
+          <t>33,15; 52,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40,96; 87,45</t>
+          <t>31,81; 54,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,57; 56,87</t>
+          <t>42,6; 60,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>50,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>42,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>53,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>45,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>53,56%</t>
+          <t>57,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>53,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,54%</t>
+          <t>63,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38,27%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>58,64%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,54; 36,1</t>
+          <t>35,3; 51,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,19; 49,59</t>
+          <t>40,68; 61,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,11; 54,0</t>
+          <t>33,17; 54,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,56; 64,64</t>
+          <t>43,99; 63,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,4; 65,58</t>
+          <t>31,8; 58,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,98; 71,64</t>
+          <t>42,68; 68,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,53; 62,61</t>
+          <t>38,96; 65,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,55; 74,35</t>
+          <t>55,86; 71,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 39,4</t>
+          <t>37,12; 51,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,17; 52,78</t>
+          <t>45,11; 61,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,35; 51,38</t>
+          <t>38,8; 55,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>45,35; 64,66</t>
+          <t>52,13; 65,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>66,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,47%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,36%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>64,21%</t>
+          <t>47,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>53,12%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>46,72%</t>
+          <t>45,05%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,31%</t>
+          <t>54,05%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,3; 51,59</t>
+          <t>32,93; 52,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,68; 61,39</t>
+          <t>41,11; 64,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,17; 54,78</t>
+          <t>24,49; 43,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,0; 64,74</t>
+          <t>51,53; 79,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,8; 58,6</t>
+          <t>49,41; 78,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,68; 68,96</t>
+          <t>40,21; 68,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,96; 65,68</t>
+          <t>53,05; 76,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>55,88; 71,61</t>
+          <t>16,78; 74,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,12; 51,18</t>
+          <t>41,65; 58,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,11; 61,34</t>
+          <t>44,44; 62,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>38,8; 55,79</t>
+          <t>36,55; 52,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,7; 65,73</t>
+          <t>25,64; 72,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>48,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>66,44%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,85%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>61,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,51%</t>
+          <t>68,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,64%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>64,52%</t>
+          <t>75,32%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,93; 52,71</t>
+          <t>49,4; 65,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,11; 64,24</t>
+          <t>37,89; 59,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 43,09</t>
+          <t>47,89; 69,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,83; 80,17</t>
+          <t>72,37; 87,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,41; 78,32</t>
+          <t>40,35; 61,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,21; 68,57</t>
+          <t>48,68; 73,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,05; 76,43</t>
+          <t>54,26; 78,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,16; 76,13</t>
+          <t>57,33; 78,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,65; 58,92</t>
+          <t>47,92; 61,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,44; 62,5</t>
+          <t>46,23; 62,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,55; 52,28</t>
+          <t>54,71; 69,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,93; 74,3</t>
+          <t>67,08; 80,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>57,62%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>48,12%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57,99%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>80,89%</t>
+          <t>61,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,98%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>69,41%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>62,55%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>74,91%</t>
+          <t>61,16%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,4; 65,73</t>
+          <t>38,46; 48,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,89; 59,84</t>
+          <t>41,03; 52,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,89; 69,01</t>
+          <t>38,13; 49,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,75; 87,75</t>
+          <t>55,75; 66,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,35; 61,71</t>
+          <t>44,12; 57,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,68; 73,15</t>
+          <t>49,47; 63,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,26; 78,82</t>
+          <t>53,42; 66,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,58; 77,8</t>
+          <t>43,77; 68,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,92; 61,41</t>
+          <t>41,73; 49,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,23; 62,79</t>
+          <t>47,09; 55,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>54,71; 69,87</t>
+          <t>45,54; 54,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>65,64; 80,39</t>
+          <t>50,28; 65,88</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>43,42%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>46,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>43,43%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>62,39%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>51,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>57,54%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>60,58%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>64,98%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>45,94%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>51,13%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>49,98%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>63,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>38,46; 48,43</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>41,03; 52,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>38,13; 49,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>56,43; 67,18</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>44,12; 57,5</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>49,47; 63,88</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>53,42; 66,65</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>57,3; 70,0</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>41,73; 49,52</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>47,09; 55,93</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>45,54; 54,18</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>58,81; 67,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P6902-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,4; 29,97</t>
+          <t>11,5; 30,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,25; 47,38</t>
+          <t>26,24; 47,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,39; 54,85</t>
+          <t>29,4; 56,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,52; 58,24</t>
+          <t>31,49; 57,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,03; 58,94</t>
+          <t>26,62; 58,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,16; 72,3</t>
+          <t>37,11; 71,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,28; 63,36</t>
+          <t>29,22; 65,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,96; 69,26</t>
+          <t>47,28; 69,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,13; 35,36</t>
+          <t>17,72; 34,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,15; 52,08</t>
+          <t>32,92; 51,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,81; 54,16</t>
+          <t>32,3; 55,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,6; 60,21</t>
+          <t>40,92; 59,56</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,3; 51,59</t>
+          <t>34,57; 51,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,68; 61,39</t>
+          <t>40,41; 60,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,17; 54,78</t>
+          <t>32,41; 54,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,99; 63,91</t>
+          <t>43,6; 63,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,8; 58,6</t>
+          <t>32,32; 59,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,68; 68,96</t>
+          <t>45,67; 70,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,96; 65,68</t>
+          <t>39,49; 66,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55,86; 71,49</t>
+          <t>55,4; 71,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,12; 51,18</t>
+          <t>36,79; 51,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45,11; 61,34</t>
+          <t>45,16; 62,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,8; 55,79</t>
+          <t>38,01; 54,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,13; 65,3</t>
+          <t>51,68; 65,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,93; 52,71</t>
+          <t>32,35; 53,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,11; 64,24</t>
+          <t>39,29; 64,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,49; 43,09</t>
+          <t>24,49; 43,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,53; 79,82</t>
+          <t>51,5; 78,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,41; 78,32</t>
+          <t>51,15; 79,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,21; 68,57</t>
+          <t>40,0; 68,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,05; 76,43</t>
+          <t>51,26; 76,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 74,97</t>
+          <t>19,55; 75,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,65; 58,92</t>
+          <t>41,54; 59,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,44; 62,5</t>
+          <t>43,79; 61,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,55; 52,28</t>
+          <t>37,55; 52,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 72,44</t>
+          <t>25,75; 72,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,4; 65,73</t>
+          <t>48,65; 65,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,89; 59,84</t>
+          <t>36,89; 59,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,89; 69,01</t>
+          <t>47,23; 68,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,37; 87,45</t>
+          <t>71,63; 87,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,35; 61,71</t>
+          <t>40,52; 61,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,68; 73,15</t>
+          <t>48,35; 73,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,26; 78,82</t>
+          <t>56,3; 80,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,33; 78,07</t>
+          <t>57,41; 78,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,92; 61,41</t>
+          <t>48,14; 61,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,23; 62,79</t>
+          <t>45,0; 62,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,71; 69,87</t>
+          <t>54,4; 69,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>67,08; 80,55</t>
+          <t>67,27; 81,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,46; 48,43</t>
+          <t>38,71; 48,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,03; 52,06</t>
+          <t>40,96; 52,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,13; 49,1</t>
+          <t>37,8; 48,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55,75; 66,69</t>
+          <t>56,4; 67,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,12; 57,5</t>
+          <t>45,02; 58,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,47; 63,88</t>
+          <t>50,04; 64,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,42; 66,65</t>
+          <t>53,61; 67,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,77; 68,61</t>
+          <t>42,3; 68,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>41,73; 49,52</t>
+          <t>42,18; 49,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,09; 55,93</t>
+          <t>46,69; 55,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,54; 54,18</t>
+          <t>45,38; 54,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,28; 65,88</t>
+          <t>51,16; 66,32</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente nervioso y estresado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15435</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27866</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22771</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31546</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13242</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19068</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13669</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32570</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28677</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46935</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36440</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>64116</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9123; 24003</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20092; 36201</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16072; 31103</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22426; 40726</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8581; 18947</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13082; 25088</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8741; 19506</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25853; 38098</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19766; 38926</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>36820; 57352</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27325; 46666</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>51521; 74990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>63613</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>45947</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>41677</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>60420</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>24009</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36424</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29581</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>63153</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>87621</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>82371</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>71257</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>123572</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>50472; 75023</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37004; 55781</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31435; 52595</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>48823; 71311</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17062; 31611</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29000; 45036</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>21935; 37082</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54692; 70715</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>73130; 102390</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>70026; 96195</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>57982; 82931</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>108905; 137702</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47039</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41313</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36280</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36524</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30642</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28966</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42418</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45729</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>77681</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>70278</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>78698</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>82252</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35564; 58458</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31256; 51241</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26919; 47439</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28466; 43274</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23803; 36998</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21193; 36060</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33188; 49314</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18942; 72822</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>64995; 92319</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>58031; 80967</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>65590; 91675</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39182; 110232</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>78974</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37245</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51267</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>81476</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>45125</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39728</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45366</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>72871</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>124100</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76974</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>96633</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>154347</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66676; 90365</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28554; 45853</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41752; 60133</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>72363; 88491</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>35878; 54538</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30993; 46913</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>37205; 53031</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59649; 81491</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>108614; 138333</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>63671; 88347</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>84039; 107932</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>137864; 166274</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>205061</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>152372</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>151995</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>209966</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>113018</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>124186</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>131034</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>214322</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>318079</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>276558</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>283029</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>424288</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>182842; 226766</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>133156; 170842</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>132290; 170699</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>191466; 227618</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>99095; 129325</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>108010; 138217</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>115947; 145027</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>149821; 243927</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>292085; 343979</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>252559; 300396</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>256966; 307060</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>354902; 460070</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>